--- a/xlsx/交子_intext.xlsx
+++ b/xlsx/交子_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>交子</t>
   </si>
@@ -29,7 +29,7 @@
     <t>北宋</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_交子</t>
+    <t>政策_政策_货币政策_交子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%91%E8%A8%BC</t>
   </si>
   <si>
-    <t>憑証</t>
+    <t>凭証</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E9%8C%A2</t>
   </si>
   <si>
-    <t>鐵錢</t>
+    <t>铁钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AB</t>
   </si>
   <si>
-    <t>貫</t>
+    <t>贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E8%A9%A0</t>
   </si>
   <si>
-    <t>張詠</t>
+    <t>张咏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A4%8F</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BF%83%E5%82%B3</t>
   </si>
   <si>
-    <t>李心傳</t>
+    <t>李心传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%95%E9%99%B6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E9%8B%8C</t>
   </si>
   <si>
-    <t>銀鋌</t>
+    <t>银铤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%AE%9D</t>
@@ -269,15 +269,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%8C%A2</t>
   </si>
   <si>
-    <t>銅錢</t>
+    <t>铜钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E9%92%B1</t>
   </si>
   <si>
-    <t>铁钱</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E5%B8%81</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99%E5%B9%A3</t>
   </si>
   <si>
-    <t>紙幣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E5%AD%90</t>
   </si>
   <si>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%88%94</t>
   </si>
   <si>
-    <t>交鈔</t>
+    <t>交钞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%98%8E%E5%AE%9D%E9%92%9E</t>
@@ -341,19 +335,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B9%A3</t>
   </si>
   <si>
-    <t>法幣</t>
+    <t>法币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%9C%93%E5%88%B8</t>
   </si>
   <si>
-    <t>金圓券</t>
+    <t>金圆券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E5%9C%93%E5%88%B8</t>
   </si>
   <si>
-    <t>銀圓券</t>
+    <t>银圆券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%B1%E8%8C%83</t>
@@ -1948,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1974,10 +1968,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2003,10 +1997,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2032,10 +2026,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2061,10 +2055,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2090,10 +2084,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2119,10 +2113,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>12</v>
@@ -2148,10 +2142,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2177,10 +2171,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2206,10 +2200,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2235,10 +2229,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2264,10 +2258,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2293,10 +2287,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2322,10 +2316,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2351,10 +2345,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
